--- a/database/ATSH.xlsx
+++ b/database/ATSH.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H263" sqref="H263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>11650</v>
-      </c>
-      <c r="F2" s="2">
-        <v>11650</v>
+        <v>11650000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>11650000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>11650</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11770</v>
+        <v>11650000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>11770000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,10 +569,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>11650</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11880</v>
+        <v>11650000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11880000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -589,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F5" s="4">
-        <v>12000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -609,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F6" s="4">
-        <v>12110</v>
+        <v>12110000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F7" s="4">
-        <v>12230</v>
+        <v>12230000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -649,10 +649,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F8" s="4">
-        <v>12350</v>
+        <v>12350000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -669,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F9" s="4">
-        <v>12470</v>
+        <v>12470000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -689,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F10" s="4">
-        <v>12580</v>
+        <v>12580000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -709,10 +709,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F11" s="4">
-        <v>12700</v>
+        <v>12700000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -729,10 +729,10 @@
         <v>4</v>
       </c>
       <c r="E12" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F12" s="4">
-        <v>12820</v>
+        <v>12820000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -749,10 +749,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F13" s="4">
-        <v>12940</v>
+        <v>12940000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -769,10 +769,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F14" s="4">
-        <v>13060</v>
+        <v>13060000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F15" s="4">
-        <v>13170</v>
+        <v>13170000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -809,10 +809,10 @@
         <v>4</v>
       </c>
       <c r="E16" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F16" s="4">
-        <v>13290</v>
+        <v>13290000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -829,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F17" s="4">
-        <v>13410</v>
+        <v>13410000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -849,10 +849,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F18" s="4">
-        <v>13690</v>
+        <v>13690000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -869,10 +869,10 @@
         <v>4</v>
       </c>
       <c r="E19" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F19" s="4">
-        <v>13970</v>
+        <v>13970000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F20" s="4">
-        <v>14240</v>
+        <v>14240000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -909,10 +909,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F21" s="4">
-        <v>14520</v>
+        <v>14520000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -929,10 +929,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F22" s="4">
-        <v>14800</v>
+        <v>14800000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -949,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F23" s="4">
-        <v>15050</v>
+        <v>15050000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -969,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="E24" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F24" s="4">
-        <v>15290</v>
+        <v>15290000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -989,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F25" s="4">
-        <v>15540</v>
+        <v>15540000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1009,10 +1009,10 @@
         <v>4</v>
       </c>
       <c r="E26" s="4">
-        <v>11870</v>
+        <v>11870000</v>
       </c>
       <c r="F26" s="4">
-        <v>15780</v>
+        <v>15780000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1029,10 +1029,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="4">
-        <v>11930</v>
+        <v>11930000</v>
       </c>
       <c r="F27" s="4">
-        <v>16030</v>
+        <v>16030000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1049,10 +1049,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="4">
-        <v>11990</v>
+        <v>11990000</v>
       </c>
       <c r="F28" s="4">
-        <v>16420</v>
+        <v>16420000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1069,10 +1069,10 @@
         <v>4</v>
       </c>
       <c r="E29" s="4">
-        <v>12290</v>
+        <v>12290000</v>
       </c>
       <c r="F29" s="4">
-        <v>16810</v>
+        <v>16810000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1089,10 +1089,10 @@
         <v>4</v>
       </c>
       <c r="E30" s="4">
-        <v>12600</v>
+        <v>12600000</v>
       </c>
       <c r="F30" s="4">
-        <v>17210</v>
+        <v>17210000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1109,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="E31" s="4">
-        <v>12900</v>
+        <v>12900000</v>
       </c>
       <c r="F31" s="4">
-        <v>17600</v>
+        <v>17600000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="4">
-        <v>13200</v>
+        <v>13200000</v>
       </c>
       <c r="F32" s="4">
-        <v>17990</v>
+        <v>17990000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="4">
-        <v>13500</v>
+        <v>13500000</v>
       </c>
       <c r="F33" s="4">
-        <v>18430</v>
+        <v>18430000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,10 +1169,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="4">
-        <v>13800</v>
+        <v>13800000</v>
       </c>
       <c r="F34" s="4">
-        <v>18870</v>
+        <v>18870000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1189,10 +1189,10 @@
         <v>4</v>
       </c>
       <c r="E35" s="4">
-        <v>15000</v>
+        <v>15000000</v>
       </c>
       <c r="F35" s="4">
-        <v>19320</v>
+        <v>19320000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="E36" s="4">
-        <v>15140</v>
+        <v>15140000</v>
       </c>
       <c r="F36" s="4">
-        <v>19760</v>
+        <v>19760000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1229,10 +1229,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="4">
-        <v>16190</v>
+        <v>16190000</v>
       </c>
       <c r="F37" s="4">
-        <v>20200</v>
+        <v>20200000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1249,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="E38" s="4">
-        <v>17050</v>
+        <v>17050000</v>
       </c>
       <c r="F38" s="4">
-        <v>20950</v>
+        <v>20950000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1269,10 +1269,10 @@
         <v>4</v>
       </c>
       <c r="E39" s="4">
-        <v>17950</v>
+        <v>17950000</v>
       </c>
       <c r="F39" s="4">
-        <v>21710</v>
+        <v>21710000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1289,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="E40" s="4">
-        <v>19150</v>
+        <v>19150000</v>
       </c>
       <c r="F40" s="4">
-        <v>22460</v>
+        <v>22460000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1309,10 +1309,10 @@
         <v>4</v>
       </c>
       <c r="E41" s="4">
-        <v>20360</v>
+        <v>20360000</v>
       </c>
       <c r="F41" s="4">
-        <v>23220</v>
+        <v>23220000</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1329,10 +1329,10 @@
         <v>4</v>
       </c>
       <c r="E42" s="4">
-        <v>21400</v>
+        <v>21400000</v>
       </c>
       <c r="F42" s="4">
-        <v>23970</v>
+        <v>23970000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1349,10 +1349,10 @@
         <v>4</v>
       </c>
       <c r="E43" s="4">
-        <v>22451</v>
-      </c>
-      <c r="F43" s="7">
-        <v>25200</v>
+        <v>22451000</v>
+      </c>
+      <c r="F43" s="4">
+        <v>25200000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,10 +1369,10 @@
         <v>4</v>
       </c>
       <c r="E44" s="4">
-        <v>23490</v>
+        <v>23490000</v>
       </c>
       <c r="F44" s="4">
-        <v>26440</v>
+        <v>26440000</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1389,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="E45" s="4">
-        <v>26100</v>
+        <v>26100000</v>
       </c>
       <c r="F45" s="2">
-        <v>27670</v>
+        <v>27670000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1409,10 +1409,10 @@
         <v>4</v>
       </c>
       <c r="E46" s="4">
-        <v>27040</v>
+        <v>27040000</v>
       </c>
       <c r="F46" s="4">
-        <v>28910</v>
+        <v>28910000</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1429,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="E47" s="4">
-        <v>29550</v>
+        <v>29550000</v>
       </c>
       <c r="F47" s="4">
-        <v>30140</v>
+        <v>30140000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1449,10 +1449,10 @@
         <v>4</v>
       </c>
       <c r="E48" s="4">
-        <v>31860</v>
+        <v>31860000</v>
       </c>
       <c r="F48" s="4">
-        <v>31860</v>
+        <v>31860000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1469,10 +1469,10 @@
         <v>4</v>
       </c>
       <c r="E49" s="4">
-        <v>33580</v>
+        <v>33580000</v>
       </c>
       <c r="F49" s="4">
-        <v>33580</v>
+        <v>33580000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1489,10 +1489,10 @@
         <v>4</v>
       </c>
       <c r="E50" s="4">
-        <v>35290</v>
+        <v>35290000</v>
       </c>
       <c r="F50" s="4">
-        <v>35290</v>
+        <v>35290000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1509,10 +1509,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="4">
-        <v>37010</v>
+        <v>37010000</v>
       </c>
       <c r="F51" s="4">
-        <v>37010</v>
+        <v>37010000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,10 +1529,10 @@
         <v>4</v>
       </c>
       <c r="E52" s="4">
-        <v>38730</v>
+        <v>38730000</v>
       </c>
       <c r="F52" s="4">
-        <v>38730</v>
+        <v>38730000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,10 +1549,10 @@
         <v>4</v>
       </c>
       <c r="E53" s="4">
-        <v>41000</v>
+        <v>41000000</v>
       </c>
       <c r="F53" s="4">
-        <v>41000</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1569,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="E54" s="4">
-        <v>43270</v>
+        <v>43270000</v>
       </c>
       <c r="F54" s="4">
-        <v>43270</v>
+        <v>43270000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1589,10 +1589,10 @@
         <v>4</v>
       </c>
       <c r="E55" s="4">
-        <v>45550</v>
+        <v>45550000</v>
       </c>
       <c r="F55" s="4">
-        <v>45550</v>
+        <v>45550000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1609,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="E56" s="4">
-        <v>47820</v>
+        <v>47820000</v>
       </c>
       <c r="F56" s="4">
-        <v>47820</v>
+        <v>47820000</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1629,10 +1629,10 @@
         <v>4</v>
       </c>
       <c r="E57" s="4">
-        <v>50090</v>
+        <v>50090000</v>
       </c>
       <c r="F57" s="4">
-        <v>50090</v>
+        <v>50090000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="E58" s="4">
-        <v>53300</v>
+        <v>53300000</v>
       </c>
       <c r="F58" s="4">
-        <v>53300</v>
+        <v>53300000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1669,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="E59" s="4">
-        <v>56510</v>
+        <v>56510000</v>
       </c>
       <c r="F59" s="4">
-        <v>56510</v>
+        <v>56510000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1689,10 +1689,10 @@
         <v>4</v>
       </c>
       <c r="E60" s="4">
-        <v>59710</v>
+        <v>59710000</v>
       </c>
       <c r="F60" s="4">
-        <v>59710</v>
+        <v>59710000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1709,10 +1709,10 @@
         <v>4</v>
       </c>
       <c r="E61" s="4">
-        <v>62920</v>
+        <v>62920000</v>
       </c>
       <c r="F61" s="4">
-        <v>62920</v>
+        <v>62920000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,10 +1729,10 @@
         <v>4</v>
       </c>
       <c r="E62" s="4">
-        <v>66130</v>
+        <v>66130000</v>
       </c>
       <c r="F62" s="4">
-        <v>66130</v>
+        <v>66130000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1749,10 +1749,10 @@
         <v>4</v>
       </c>
       <c r="E63" s="4">
-        <v>69780</v>
+        <v>69780000</v>
       </c>
       <c r="F63" s="4">
-        <v>69780</v>
+        <v>69780000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1769,10 +1769,10 @@
         <v>4</v>
       </c>
       <c r="E64" s="4">
-        <v>73440</v>
+        <v>73440000</v>
       </c>
       <c r="F64" s="4">
-        <v>73440</v>
+        <v>73440000</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,10 +1789,10 @@
         <v>4</v>
       </c>
       <c r="E65" s="4">
-        <v>77090</v>
+        <v>77090000</v>
       </c>
       <c r="F65" s="4">
-        <v>77090</v>
+        <v>77090000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1809,10 +1809,10 @@
         <v>4</v>
       </c>
       <c r="E66" s="4">
-        <v>80750</v>
+        <v>80750000</v>
       </c>
       <c r="F66" s="4">
-        <v>80750</v>
+        <v>80750000</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1829,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="E67" s="4">
-        <v>84400</v>
+        <v>84400000</v>
       </c>
       <c r="F67" s="4">
-        <v>84400</v>
+        <v>84400000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -5809,10 +5809,10 @@
         <v>4</v>
       </c>
       <c r="E266" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F266" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5829,10 +5829,10 @@
         <v>4</v>
       </c>
       <c r="E267" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F267" s="2">
-        <v>11770</v>
+        <v>11770000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5849,10 +5849,10 @@
         <v>4</v>
       </c>
       <c r="E268" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F268" s="2">
-        <v>11880</v>
+        <v>11880000</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -5869,10 +5869,10 @@
         <v>4</v>
       </c>
       <c r="E269" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F269" s="4">
-        <v>12000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -5889,10 +5889,10 @@
         <v>4</v>
       </c>
       <c r="E270" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F270" s="4">
-        <v>12110</v>
+        <v>12110000</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5909,10 +5909,10 @@
         <v>4</v>
       </c>
       <c r="E271" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F271" s="4">
-        <v>12230</v>
+        <v>12230000</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -5929,10 +5929,10 @@
         <v>4</v>
       </c>
       <c r="E272" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F272" s="4">
-        <v>12480</v>
+        <v>12480000</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5949,10 +5949,10 @@
         <v>4</v>
       </c>
       <c r="E273" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F273" s="4">
-        <v>12740</v>
+        <v>12740000</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -5969,10 +5969,10 @@
         <v>4</v>
       </c>
       <c r="E274" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F274" s="4">
-        <v>12990</v>
+        <v>12990000</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -5989,10 +5989,10 @@
         <v>4</v>
       </c>
       <c r="E275" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F275" s="4">
-        <v>13250</v>
+        <v>13250000</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -6009,10 +6009,10 @@
         <v>4</v>
       </c>
       <c r="E276" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F276" s="4">
-        <v>13500</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6029,10 +6029,10 @@
         <v>4</v>
       </c>
       <c r="E277" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F277" s="4">
-        <v>13710</v>
+        <v>13710000</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6049,10 +6049,10 @@
         <v>4</v>
       </c>
       <c r="E278" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F278" s="4">
-        <v>13930</v>
+        <v>13930000</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6069,10 +6069,10 @@
         <v>4</v>
       </c>
       <c r="E279" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F279" s="4">
-        <v>14140</v>
+        <v>14140000</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6089,10 +6089,10 @@
         <v>4</v>
       </c>
       <c r="E280" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F280" s="4">
-        <v>14360</v>
+        <v>14360000</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6109,10 +6109,10 @@
         <v>4</v>
       </c>
       <c r="E281" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F281" s="4">
-        <v>14570</v>
+        <v>14570000</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -6129,10 +6129,10 @@
         <v>4</v>
       </c>
       <c r="E282" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F282" s="4">
-        <v>14890</v>
+        <v>14890000</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6149,10 +6149,10 @@
         <v>4</v>
       </c>
       <c r="E283" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F283" s="4">
-        <v>15210</v>
+        <v>15210000</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6169,10 +6169,10 @@
         <v>4</v>
       </c>
       <c r="E284" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F284" s="4">
-        <v>15520</v>
+        <v>15520000</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6189,10 +6189,10 @@
         <v>4</v>
       </c>
       <c r="E285" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F285" s="4">
-        <v>15840</v>
+        <v>15840000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6209,10 +6209,10 @@
         <v>4</v>
       </c>
       <c r="E286" s="2">
-        <v>11650</v>
+        <v>11650000</v>
       </c>
       <c r="F286" s="4">
-        <v>16160</v>
+        <v>16160000</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -6229,10 +6229,10 @@
         <v>4</v>
       </c>
       <c r="E287" s="4">
-        <v>11870</v>
+        <v>11870000</v>
       </c>
       <c r="F287" s="4">
-        <v>16430</v>
+        <v>16430000</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6249,10 +6249,10 @@
         <v>4</v>
       </c>
       <c r="E288" s="4">
-        <v>11930</v>
+        <v>11930000</v>
       </c>
       <c r="F288" s="4">
-        <v>16700</v>
+        <v>16700000</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6269,10 +6269,10 @@
         <v>4</v>
       </c>
       <c r="E289" s="4">
-        <v>11990</v>
+        <v>11990000</v>
       </c>
       <c r="F289" s="4">
-        <v>16960</v>
+        <v>16960000</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6289,10 +6289,10 @@
         <v>4</v>
       </c>
       <c r="E290" s="4">
-        <v>12290</v>
+        <v>12290000</v>
       </c>
       <c r="F290" s="4">
-        <v>17230</v>
+        <v>17230000</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6309,10 +6309,10 @@
         <v>4</v>
       </c>
       <c r="E291" s="4">
-        <v>12600</v>
+        <v>12600000</v>
       </c>
       <c r="F291" s="4">
-        <v>17500</v>
+        <v>17500000</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -6329,10 +6329,10 @@
         <v>4</v>
       </c>
       <c r="E292" s="4">
-        <v>12900</v>
+        <v>12900000</v>
       </c>
       <c r="F292" s="4">
-        <v>17930</v>
+        <v>17930000</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6349,10 +6349,10 @@
         <v>4</v>
       </c>
       <c r="E293" s="4">
-        <v>13200</v>
+        <v>13200000</v>
       </c>
       <c r="F293" s="4">
-        <v>18350</v>
+        <v>18350000</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -6369,10 +6369,10 @@
         <v>4</v>
       </c>
       <c r="E294" s="4">
-        <v>13500</v>
+        <v>13500000</v>
       </c>
       <c r="F294" s="4">
-        <v>18780</v>
+        <v>18780000</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -6389,10 +6389,10 @@
         <v>4</v>
       </c>
       <c r="E295" s="4">
-        <v>13800</v>
+        <v>13800000</v>
       </c>
       <c r="F295" s="4">
-        <v>19200</v>
+        <v>19200000</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -6409,10 +6409,10 @@
         <v>4</v>
       </c>
       <c r="E296" s="4">
-        <v>15000</v>
+        <v>15000000</v>
       </c>
       <c r="F296" s="4">
-        <v>19630</v>
+        <v>19630000</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -6429,10 +6429,10 @@
         <v>4</v>
       </c>
       <c r="E297" s="4">
-        <v>15140</v>
+        <v>15140000</v>
       </c>
       <c r="F297" s="4">
-        <v>20300</v>
+        <v>20300000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -6449,10 +6449,10 @@
         <v>4</v>
       </c>
       <c r="E298" s="4">
-        <v>16190</v>
+        <v>16190000</v>
       </c>
       <c r="F298" s="4">
-        <v>20970</v>
+        <v>20970000</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -6469,10 +6469,10 @@
         <v>4</v>
       </c>
       <c r="E299" s="4">
-        <v>17050</v>
+        <v>17050000</v>
       </c>
       <c r="F299" s="4">
-        <v>21640</v>
+        <v>21640000</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -6489,10 +6489,10 @@
         <v>4</v>
       </c>
       <c r="E300" s="4">
-        <v>17950</v>
+        <v>17950000</v>
       </c>
       <c r="F300" s="4">
-        <v>22310</v>
+        <v>22310000</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -6509,10 +6509,10 @@
         <v>4</v>
       </c>
       <c r="E301" s="4">
-        <v>19150</v>
+        <v>19150000</v>
       </c>
       <c r="F301" s="4">
-        <v>22980</v>
+        <v>22980000</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -6529,10 +6529,10 @@
         <v>4</v>
       </c>
       <c r="E302" s="4">
-        <v>20360</v>
+        <v>20360000</v>
       </c>
       <c r="F302" s="4">
-        <v>24070</v>
+        <v>24070000</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -6549,10 +6549,10 @@
         <v>4</v>
       </c>
       <c r="E303" s="4">
-        <v>21400</v>
+        <v>21400000</v>
       </c>
       <c r="F303" s="4">
-        <v>25170</v>
+        <v>25170000</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -6569,10 +6569,10 @@
         <v>4</v>
       </c>
       <c r="E304" s="4">
-        <v>22451</v>
+        <v>22451000</v>
       </c>
       <c r="F304" s="4">
-        <v>26260</v>
+        <v>26260000</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -6589,10 +6589,10 @@
         <v>4</v>
       </c>
       <c r="E305" s="4">
-        <v>23490</v>
+        <v>23490000</v>
       </c>
       <c r="F305" s="4">
-        <v>27360</v>
+        <v>27360000</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -6609,10 +6609,10 @@
         <v>4</v>
       </c>
       <c r="E306" s="4">
-        <v>26100</v>
+        <v>26100000</v>
       </c>
       <c r="F306" s="4">
-        <v>28450</v>
+        <v>28450000</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -6629,10 +6629,10 @@
         <v>4</v>
       </c>
       <c r="E307" s="7">
-        <v>27040</v>
+        <v>27040000</v>
       </c>
       <c r="F307" s="7">
-        <v>30320</v>
+        <v>30320000</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -6649,10 +6649,10 @@
         <v>4</v>
       </c>
       <c r="E308" s="4">
-        <v>29550</v>
+        <v>29550000</v>
       </c>
       <c r="F308" s="4">
-        <v>32200</v>
+        <v>32200000</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -6669,10 +6669,10 @@
         <v>4</v>
       </c>
       <c r="E309" s="4">
-        <v>32060</v>
+        <v>32060000</v>
       </c>
       <c r="F309" s="2">
-        <v>34070</v>
+        <v>34070000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -6689,10 +6689,10 @@
         <v>4</v>
       </c>
       <c r="E310" s="4">
-        <v>34570</v>
+        <v>34570000</v>
       </c>
       <c r="F310" s="4">
-        <v>35950</v>
+        <v>35950000</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -6709,10 +6709,10 @@
         <v>4</v>
       </c>
       <c r="E311" s="4">
-        <v>37080</v>
+        <v>37080000</v>
       </c>
       <c r="F311" s="4">
-        <v>37820</v>
+        <v>37820000</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -6729,10 +6729,10 @@
         <v>4</v>
       </c>
       <c r="E312" s="4">
-        <v>39590</v>
+        <v>39590000</v>
       </c>
       <c r="F312" s="4">
-        <v>39860</v>
+        <v>39860000</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -6749,10 +6749,10 @@
         <v>4</v>
       </c>
       <c r="E313" s="4">
-        <v>41890</v>
+        <v>41890000</v>
       </c>
       <c r="F313" s="4">
-        <v>41890</v>
+        <v>41890000</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -6769,10 +6769,10 @@
         <v>4</v>
       </c>
       <c r="E314" s="4">
-        <v>43930</v>
+        <v>43930000</v>
       </c>
       <c r="F314" s="4">
-        <v>43930</v>
+        <v>43930000</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -6789,10 +6789,10 @@
         <v>4</v>
       </c>
       <c r="E315" s="4">
-        <v>45950</v>
+        <v>45950000</v>
       </c>
       <c r="F315" s="4">
-        <v>45950</v>
+        <v>45950000</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -6809,10 +6809,10 @@
         <v>4</v>
       </c>
       <c r="E316" s="4">
-        <v>48000</v>
+        <v>48000000</v>
       </c>
       <c r="F316" s="4">
-        <v>48000</v>
+        <v>48000000</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -6829,10 +6829,10 @@
         <v>4</v>
       </c>
       <c r="E317" s="4">
-        <v>51090</v>
+        <v>51090000</v>
       </c>
       <c r="F317" s="4">
-        <v>51090</v>
+        <v>51090000</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -6849,10 +6849,10 @@
         <v>4</v>
       </c>
       <c r="E318" s="4">
-        <v>54170</v>
+        <v>54170000</v>
       </c>
       <c r="F318" s="4">
-        <v>54170</v>
+        <v>54170000</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -6869,10 +6869,10 @@
         <v>4</v>
       </c>
       <c r="E319" s="4">
-        <v>57260</v>
+        <v>57260000</v>
       </c>
       <c r="F319" s="4">
-        <v>57260</v>
+        <v>57260000</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -6889,10 +6889,10 @@
         <v>4</v>
       </c>
       <c r="E320" s="4">
-        <v>60304</v>
+        <v>60304000</v>
       </c>
       <c r="F320" s="4">
-        <v>60304</v>
+        <v>60304000</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -6909,10 +6909,10 @@
         <v>4</v>
       </c>
       <c r="E321" s="4">
-        <v>63430</v>
+        <v>63430000</v>
       </c>
       <c r="F321" s="4">
-        <v>63430</v>
+        <v>63430000</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -6929,10 +6929,10 @@
         <v>4</v>
       </c>
       <c r="E322" s="4">
-        <v>67080</v>
+        <v>67080000</v>
       </c>
       <c r="F322" s="4">
-        <v>67080</v>
+        <v>67080000</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -6949,10 +6949,10 @@
         <v>4</v>
       </c>
       <c r="E323" s="4">
-        <v>70740</v>
+        <v>70740000</v>
       </c>
       <c r="F323" s="4">
-        <v>70740</v>
+        <v>70740000</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -6969,10 +6969,10 @@
         <v>4</v>
       </c>
       <c r="E324" s="4">
-        <v>74390</v>
+        <v>74390000</v>
       </c>
       <c r="F324" s="4">
-        <v>74390</v>
+        <v>74390000</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -6989,10 +6989,10 @@
         <v>4</v>
       </c>
       <c r="E325" s="4">
-        <v>78050</v>
+        <v>78050000</v>
       </c>
       <c r="F325" s="4">
-        <v>78050</v>
+        <v>78050000</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -7009,10 +7009,10 @@
         <v>4</v>
       </c>
       <c r="E326" s="4">
-        <v>81700</v>
+        <v>81700000</v>
       </c>
       <c r="F326" s="4">
-        <v>81700</v>
+        <v>81700000</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -7029,10 +7029,10 @@
         <v>4</v>
       </c>
       <c r="E327" s="4">
-        <v>86190</v>
+        <v>86190000</v>
       </c>
       <c r="F327" s="4">
-        <v>86190</v>
+        <v>86190000</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7049,10 +7049,10 @@
         <v>4</v>
       </c>
       <c r="E328" s="4">
-        <v>90670</v>
+        <v>90670000</v>
       </c>
       <c r="F328" s="4">
-        <v>90670</v>
+        <v>90670000</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -7069,10 +7069,10 @@
         <v>4</v>
       </c>
       <c r="E329" s="4">
-        <v>95160</v>
+        <v>95160000</v>
       </c>
       <c r="F329" s="4">
-        <v>95160</v>
+        <v>95160000</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -7089,10 +7089,10 @@
         <v>4</v>
       </c>
       <c r="E330" s="4">
-        <v>99640</v>
+        <v>99640000</v>
       </c>
       <c r="F330" s="4">
-        <v>99640</v>
+        <v>99640000</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7109,10 +7109,10 @@
         <v>4</v>
       </c>
       <c r="E331" s="4">
-        <v>104130</v>
+        <v>104130000</v>
       </c>
       <c r="F331" s="4">
-        <v>104130</v>
+        <v>104130000</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
